--- a/data/trans_bre/P1413-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1413-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.440533834845288</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19.95291491922008</v>
+        <v>19.95291491922007</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.139941978185066</v>
@@ -649,7 +649,7 @@
         <v>0.7127702494227368</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.6314875496209965</v>
+        <v>0.6314875496209963</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2379376866850458</v>
+        <v>0.1649869793623555</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.037821348709251</v>
+        <v>7.497219914825143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.792026750556859</v>
+        <v>5.080657225644709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14.76724198901709</v>
+        <v>15.64701061128063</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.01072722579064492</v>
+        <v>0.003342162136228853</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4558694458589649</v>
+        <v>0.4053826462718471</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3700246903180695</v>
+        <v>0.3434474984565637</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4238677738595293</v>
+        <v>0.4495788854315308</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.19872487901304</v>
+        <v>7.585857937973575</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.72699431866279</v>
+        <v>14.5738724874997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.78899650418586</v>
+        <v>13.17144691910382</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.16258921098044</v>
+        <v>24.47442586561811</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2956661617842296</v>
+        <v>0.3207453319190851</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.059745341467302</v>
+        <v>1.046718418585007</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.093142110640505</v>
+        <v>1.154943330220925</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8367972093192257</v>
+        <v>0.8484773849589841</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.514217090380357</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.793026748077581</v>
+        <v>8.79302674807759</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.124062737876616</v>
@@ -749,7 +749,7 @@
         <v>0.655579820650356</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5205237123529908</v>
+        <v>0.5205237123529913</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7089145727308719</v>
+        <v>-0.8262555787054605</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.578955016973827</v>
+        <v>4.621103669285917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.818208472473718</v>
+        <v>2.662697938588734</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.480579604966103</v>
+        <v>6.411393666084821</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06226924436708934</v>
+        <v>-0.0687680861924916</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.598753485688188</v>
+        <v>0.6377257459054355</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3538391500727328</v>
+        <v>0.3388680018184164</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3553689732888154</v>
+        <v>0.3474648973170607</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.069255450195072</v>
+        <v>3.832419369585343</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.467396592878501</v>
+        <v>9.037001966776366</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.429144182269861</v>
+        <v>6.499053435141996</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.18999131854348</v>
+        <v>11.23708720039296</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3637974000528428</v>
+        <v>0.3434054772224141</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.430780353019383</v>
+        <v>1.517293921799971</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.042093074517006</v>
+        <v>1.054767970085448</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7222270844738318</v>
+        <v>0.7162308178260396</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.8466267217502723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.824341130389676</v>
+        <v>8.82434113038968</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.06488881104083502</v>
@@ -849,7 +849,7 @@
         <v>0.1338183883476048</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.685672316382233</v>
+        <v>0.6856723163822334</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.735188044790485</v>
+        <v>-4.325678401511191</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.696954783368998</v>
+        <v>2.885618954080759</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.389973251100986</v>
+        <v>-2.471481890037537</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.120148794939677</v>
+        <v>5.112867618498217</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3494677026057171</v>
+        <v>-0.3290586867487449</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3940853400754633</v>
+        <v>0.3801045993681427</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.308837756803233</v>
+        <v>-0.310576931987649</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3415255220841268</v>
+        <v>0.3245246015811207</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.196376191132524</v>
+        <v>3.136401337991356</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.26091890724499</v>
+        <v>10.52914328290575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.126662395039721</v>
+        <v>3.886965667706827</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.54431107529297</v>
+        <v>12.48593573718034</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3467664203732344</v>
+        <v>0.3406188898908337</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.039908086386864</v>
+        <v>2.952058561376337</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8612152714032587</v>
+        <v>0.8362406815640215</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.141443659748496</v>
+        <v>1.151668813836362</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.705427096245373</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12.10587450945011</v>
+        <v>12.10587450945012</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1890013094431436</v>
@@ -949,7 +949,7 @@
         <v>0.6944706344634073</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6545176420623521</v>
+        <v>0.6545176420623522</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.165178514517089</v>
+        <v>1.319718412837851</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.441878767944302</v>
+        <v>7.411284430046336</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.190932434857208</v>
+        <v>4.113658433188448</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10.13744804543609</v>
+        <v>10.35563810088233</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06827278440146463</v>
+        <v>0.07628980131963066</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7600122916021953</v>
+        <v>0.7533737825272051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.46142541167361</v>
+        <v>0.4679827569497753</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5236941757823064</v>
+        <v>0.5243468519283302</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.913521062609661</v>
+        <v>4.860513042346437</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.98636882515844</v>
+        <v>10.97768472737802</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.362045157371455</v>
+        <v>7.248214077879342</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.89995406675427</v>
+        <v>13.84418402629372</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3249365131953034</v>
+        <v>0.3182537822233832</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.331565038239859</v>
+        <v>1.331781778074875</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.979749863970363</v>
+        <v>0.9549409792811995</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8049494174179612</v>
+        <v>0.7823236638321972</v>
       </c>
     </row>
     <row r="16">
